--- a/iselUssSyncV2/OutputWSL/20220427_1346_D50L474W90Q30U0.40H95G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1346_D50L474W90Q30U0.40H95G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>95.150474308300403</v>
+        <v>95.151405075321364</v>
       </c>
       <c r="F2" s="0">
-        <v>95.288972332015803</v>
+        <v>95.289903099036778</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>95.783293650793638</v>
+        <v>95.785568859067141</v>
       </c>
       <c r="F3" s="0">
-        <v>97.012579365079347</v>
+        <v>97.014854573352864</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>94.778055555555568</v>
+        <v>94.780806489195314</v>
       </c>
       <c r="F4" s="0">
-        <v>98.828730158730153</v>
+        <v>98.831481092369884</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>93.999880478087633</v>
+        <v>94.002686568291622</v>
       </c>
       <c r="F5" s="0">
-        <v>99.391274900398429</v>
+        <v>99.39408099060239</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>92.784603174603177</v>
+        <v>92.78745752680085</v>
       </c>
       <c r="F6" s="0">
-        <v>100.14365079365078</v>
+        <v>100.14650514584842</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>90.409880952380959</v>
+        <v>90.412776672001726</v>
       </c>
       <c r="F7" s="0">
-        <v>99.721309523809538</v>
+        <v>99.724205243430291</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>86.212908366533853</v>
+        <v>86.215838559007295</v>
       </c>
       <c r="F8" s="0">
-        <v>95.745896414342639</v>
+        <v>95.748826606816067</v>
       </c>
     </row>
     <row r="9">
@@ -262,7 +262,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>83.626812749003989</v>
+        <v>83.629754800138727</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -280,7 +280,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>80.78035856573706</v>
+        <v>80.783311372401798</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -298,7 +298,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>77.224621513944243</v>
+        <v>77.227583973007725</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -316,7 +316,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>75.59809523809524</v>
+        <v>75.601062109683852</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -334,7 +334,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>73.96322709163347</v>
+        <v>73.96619809996443</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -352,7 +352,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>71.826746031746012</v>
+        <v>71.829720901036453</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -370,7 +370,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>69.999365079365063</v>
+        <v>70.002343533832175</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -388,10 +388,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>66.231309523809529</v>
+        <v>66.23429432128151</v>
       </c>
       <c r="F16" s="0">
-        <v>28.342261904761905</v>
+        <v>28.345246702233894</v>
       </c>
     </row>
     <row r="17">
@@ -408,10 +408,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>61.873888888888892</v>
+        <v>61.876878926234475</v>
       </c>
       <c r="F17" s="0">
-        <v>28.260793650793648</v>
+        <v>28.263783688139242</v>
       </c>
     </row>
     <row r="18">
@@ -428,10 +428,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>58.252341269841267</v>
+        <v>58.255335443929177</v>
       </c>
       <c r="F18" s="0">
-        <v>28.251309523809528</v>
+        <v>28.254303697897434</v>
       </c>
     </row>
     <row r="19">
@@ -448,10 +448,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>53.50888888888889</v>
+        <v>53.511888027067577</v>
       </c>
       <c r="F19" s="0">
-        <v>28.711944444444441</v>
+        <v>28.714943582623132</v>
       </c>
     </row>
     <row r="20">
@@ -468,10 +468,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>47.121944444444445</v>
+        <v>47.124943582623125</v>
       </c>
       <c r="F20" s="0">
-        <v>29.876825396825396</v>
+        <v>29.879824535004079</v>
       </c>
     </row>
     <row r="21">
@@ -488,10 +488,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>41.986613545816724</v>
+        <v>41.989605789424886</v>
       </c>
       <c r="F21" s="0">
-        <v>38.10187250996016</v>
+        <v>38.104864753568329</v>
       </c>
     </row>
     <row r="22">
@@ -508,10 +508,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>37.83577689243026</v>
+        <v>37.838755346897386</v>
       </c>
       <c r="F22" s="0">
-        <v>65.762151394422318</v>
+        <v>65.765129848889401</v>
       </c>
     </row>
     <row r="23">
@@ -528,10 +528,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>34.98357142857143</v>
+        <v>34.986529199326959</v>
       </c>
       <c r="F23" s="0">
-        <v>72.665595238095236</v>
+        <v>72.668553008850765</v>
       </c>
     </row>
     <row r="24">
@@ -548,10 +548,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>32.617619047619037</v>
+        <v>32.62051476723984</v>
       </c>
       <c r="F24" s="0">
-        <v>54.660952380952374</v>
+        <v>54.66384810057319</v>
       </c>
     </row>
     <row r="25">
@@ -568,10 +568,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>36.750318725099604</v>
+        <v>36.753124815303551</v>
       </c>
       <c r="F25" s="0">
-        <v>49.309960159362561</v>
+        <v>49.312766249566515</v>
       </c>
     </row>
     <row r="26">
@@ -588,10 +588,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>52.844444444444434</v>
+        <v>52.847133326949461</v>
       </c>
       <c r="F26" s="0">
-        <v>50.061428571428578</v>
+        <v>50.064117453933605</v>
       </c>
     </row>
     <row r="27">
@@ -608,10 +608,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>65.275338645418316</v>
+        <v>65.277882741942321</v>
       </c>
       <c r="F27" s="0">
-        <v>47.430239043824706</v>
+        <v>47.432783140348697</v>
       </c>
     </row>
     <row r="28">
@@ -628,10 +628,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>46.202261904761905</v>
+        <v>46.204633637022759</v>
       </c>
       <c r="F28" s="0">
-        <v>52.465753968253978</v>
+        <v>52.468125700514825</v>
       </c>
     </row>
     <row r="29">
@@ -648,10 +648,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>59.436984126984136</v>
+        <v>59.439155916699718</v>
       </c>
       <c r="F29" s="0">
-        <v>66.118650793650801</v>
+        <v>66.120822583366405</v>
       </c>
     </row>
     <row r="30">
@@ -668,10 +668,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>52.907499999999992</v>
+        <v>52.909189169778806</v>
       </c>
       <c r="F30" s="0">
-        <v>57.683611111111126</v>
+        <v>57.685300280889905</v>
       </c>
     </row>
   </sheetData>
